--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{15013B58-1A0F-416E-BA83-C3983CE5BEE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F25FF29-0DA4-4998-8DAA-562A3AD843FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="440">
   <si>
     <t>Model #</t>
   </si>
@@ -834,6 +834,516 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 23</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.6765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-24 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.8287    0.08726 -101.17       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.8686    0.04168   20.84       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1186</t>
+  </si>
+  <si>
+    <t>R-squared: 95.39 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 70.75 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4938</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.4276</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.1307 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8551</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym2</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.88884    0.14323 -62.0603  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.86862    0.04241  20.4811  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.01373    0.02565   0.5354  0.5673</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1228</t>
+  </si>
+  <si>
+    <t>R-squared: 95.45 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 71.08 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7489</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.5029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.459 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8583</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.8042    0.08255 -106.652  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8962    0.04137   21.663  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.3394    0.16980   -1.999  0.0407</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1038</t>
+  </si>
+  <si>
+    <t>R-squared: 96.16 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 74.94 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8927</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2591</t>
+  </si>
+  <si>
+    <t>lnQ     1.126</t>
+  </si>
+  <si>
+    <t>DECTIME 1.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.774 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8628</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.6634    0.77745 -9.8571  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9379    0.04115 22.7943  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.6240    0.62556 -0.9975  0.2786</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.3061    0.65859 -1.9831  0.0375</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.07837</t>
+  </si>
+  <si>
+    <t>R-squared: 97.24 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.59 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0748</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               VIF</t>
+  </si>
+  <si>
+    <t>lnQ          1.475</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 11.839</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.315 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8824</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym5</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.00035    0.13057 -68.930  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.90964    0.03966  22.938  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04747    0.02537   1.871  0.0486</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.50417    0.18271  -2.759  0.0054</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.09227</t>
+  </si>
+  <si>
+    <t>R-squared: 96.75 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 78.83 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4138</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3244</t>
+  </si>
+  <si>
+    <t>lnQ     1.163</t>
+  </si>
+  <si>
+    <t>lnQ2    1.303</t>
+  </si>
+  <si>
+    <t>DECTIME 1.466</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.209 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.884</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym6</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.85160    0.78854 -9.9571  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.93828    0.04082 22.9871  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.02375    0.02075  1.1442  0.2038</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.53711    0.62516 -0.8592  0.3363</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.25630    0.65474 -1.9188  0.0386</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.07712</t>
+  </si>
+  <si>
+    <t>R-squared: 97.43 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 84.2 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1184</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2927</t>
+  </si>
+  <si>
+    <t>lnQ2         1.043</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 12.016</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.032 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9026</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.3288    0.78048  -9.390  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9580    0.04175  22.945  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2518    0.16220  -1.552  0.0891</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.9438    0.63776  -1.480  0.1042</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.5008    0.64770  -2.317  0.0143</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.07296</t>
+  </si>
+  <si>
+    <t>R-squared: 97.57 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 85.48 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3156</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0531</t>
+  </si>
+  <si>
+    <t>lnQ          1.631</t>
+  </si>
+  <si>
+    <t>DECTIME      1.461</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.218</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -4.241 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8582</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym8</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.47723    0.70141 -10.660  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.97225    0.03786  25.679  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04727    0.02021   2.339  0.0113</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.42191    0.16237  -2.598  0.0055</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.98693    0.57109  -1.728  0.0537</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.53332    0.57986  -2.644  0.0049</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.05844</t>
+  </si>
+  <si>
+    <t>R-squared: 98.16 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 91.89 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4636</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0739</t>
+  </si>
+  <si>
+    <t>lnQ          1.674</t>
+  </si>
+  <si>
+    <t>lnQ2         1.305</t>
+  </si>
+  <si>
+    <t>DECTIME      1.828</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.232</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.763</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.4191 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8803</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Spillwaym9</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.55095    0.69737 -10.8277  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.92861    0.05315  17.4729  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.06107    0.02329   2.6225  0.0041</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.32132    0.18271  -1.7586  0.0438</t>
+  </si>
+  <si>
+    <t>DECTIME2    -1.94548    1.67948  -1.1584  0.1735</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.52038    0.69421  -0.7496  0.3729</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.27057    0.61730  -2.0583  0.0201</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.05729</t>
+  </si>
+  <si>
+    <t>R-squared: 98.3 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 93.75 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5197</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0485</t>
+  </si>
+  <si>
+    <t>lnQ          3.365</t>
+  </si>
+  <si>
+    <t>lnQ2         1.767</t>
+  </si>
+  <si>
+    <t>DECTIME      2.361</t>
+  </si>
+  <si>
+    <t>DECTIME2     4.110</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 19.946</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 15.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -0.233 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8833</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 23; Period of record: 2016-01-24 to 2017-04-04</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1147,6 +1657,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,19 +1705,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1725,8 +2241,8 @@
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1740,10 +2256,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -1782,24 +2298,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -1814,21 +2330,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="30" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="36"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -2182,13 +2698,13 @@
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="11">
@@ -2322,34 +2838,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="30" t="s">
+      <c r="B18" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -2396,35 +2914,45 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
       <c r="B20" s="11">
         <v>0</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="I20" s="11">
+        <v>95.39</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="K20" s="11">
+        <v>-0.13070000000000001</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N20" s="8" t="s">
         <v>16</v>
       </c>
@@ -2439,10 +2967,12 @@
       <c r="A21" s="27">
         <v>2</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>0.56730000000000003</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
@@ -2455,13 +2985,21 @@
       <c r="G21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="I21" s="30">
+        <v>95.45</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="K21" s="30">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="L21" s="30">
+        <v>0.85829999999999995</v>
+      </c>
       <c r="M21" s="27"/>
       <c r="N21" s="8" t="s">
         <v>16</v>
@@ -2474,33 +3012,45 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="A22" s="11">
         <v>3</v>
       </c>
       <c r="B22" s="11">
         <v>0</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="47">
+        <v>4.07E-2</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="I22" s="11">
+        <v>96.16</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.2591</v>
+      </c>
+      <c r="K22" s="11">
+        <v>-2.774</v>
+      </c>
+      <c r="L22" s="30">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N22" s="8" t="s">
         <v>16</v>
       </c>
@@ -2515,7 +3065,7 @@
       <c r="A23" s="27">
         <v>4</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2527,15 +3077,27 @@
       <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="11" t="s">
+      <c r="F23" s="30">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="G23" s="30">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="I23" s="30">
+        <v>97.24</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="K23" s="30">
+        <v>-3.3149999999999999</v>
+      </c>
+      <c r="L23" s="30">
+        <v>0.88239999999999996</v>
+      </c>
       <c r="M23" s="27"/>
       <c r="N23" s="8" t="s">
         <v>16</v>
@@ -2548,31 +3110,45 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+      <c r="A24" s="11">
         <v>5</v>
       </c>
       <c r="B24" s="11">
         <v>0</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="10" t="s">
+      <c r="C24" s="11">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="I24" s="11">
+        <v>96.75</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N24" s="8" t="s">
         <v>16</v>
       </c>
@@ -2587,25 +3163,39 @@
       <c r="A25" s="27">
         <v>6</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="30">
+        <v>0.20380000000000001</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="11" t="s">
+      <c r="F25" s="6">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="G25" s="30">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="30">
+        <v>97.43</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.29270000000000002</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-1.032</v>
+      </c>
+      <c r="L25" s="30">
+        <v>0.90259999999999996</v>
+      </c>
       <c r="M25" s="27"/>
       <c r="N25" s="8" t="s">
         <v>16</v>
@@ -2621,25 +3211,39 @@
       <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>8.9099999999999999E-2</v>
+      </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="11" t="s">
+      <c r="F26" s="6">
+        <v>0.1042</v>
+      </c>
+      <c r="G26" s="30">
+        <v>1.43E-2</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="30">
+        <v>97.57</v>
+      </c>
+      <c r="J26" s="30">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-4.2409999999999997</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0.85819999999999996</v>
+      </c>
       <c r="M26" s="27"/>
       <c r="N26" s="8" t="s">
         <v>16</v>
@@ -2652,27 +3256,45 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+      <c r="A27" s="11">
         <v>8</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10" t="s">
+      <c r="C27" s="11">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="11">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="G27" s="11">
+        <v>4.8999999999999998E-3</v>
+      </c>
       <c r="H27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
+      <c r="I27" s="11">
+        <v>98.16</v>
+      </c>
+      <c r="J27" s="11">
+        <v>-7.3899999999999993E-2</v>
+      </c>
+      <c r="K27" s="11">
+        <v>-0.41909999999999997</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N27" s="8" t="s">
         <v>16</v>
       </c>
@@ -2687,21 +3309,39 @@
       <c r="A28" s="27">
         <v>9</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="6">
         <v>0</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11" t="s">
+      <c r="C28" s="30">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2.01E-2</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="30">
+        <v>98.3</v>
+      </c>
+      <c r="J28" s="30">
+        <v>-4.8500000000000001E-2</v>
+      </c>
+      <c r="K28" s="30">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="L28" s="30">
+        <v>0.88329999999999997</v>
+      </c>
       <c r="M28" s="27"/>
       <c r="N28" s="8" t="s">
         <v>16</v>
@@ -2714,34 +3354,34 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="30" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="30"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -3106,34 +3746,34 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="30" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="30"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -3503,34 +4143,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="30" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="30"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -3880,7 +4520,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3900,222 +4540,222 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="32" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="31"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="31"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="31"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="31"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="33" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="31"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="33" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="33" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="31"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="33" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="33" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="33" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="33" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="33" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="33" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="31"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="31"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="31"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="33" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="33" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="33" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="31"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="32" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4135,247 +4775,247 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="31"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="31"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="31"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="31"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+      <c r="A72" s="31"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="33" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="33" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="33" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="31"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="33" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="33" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="33" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="33" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="31"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="31"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="31"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="33" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="33" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
+      <c r="A107" s="31"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="32" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4395,247 +5035,247 @@
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
+      <c r="A114" s="31"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
+      <c r="A117" s="31"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43" t="s">
+      <c r="A119" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
+      <c r="A123" s="31"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
+      <c r="A126" s="31"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="33" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
+      <c r="A128" s="31"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="33" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="33" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
+      <c r="A134" s="31"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="33" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="33" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="33" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="33" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
+      <c r="A142" s="33" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43" t="s">
+      <c r="A143" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
+      <c r="A144" s="31"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="31"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="43" t="s">
+      <c r="A154" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="31"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="33" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="33" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="41"/>
+      <c r="A163" s="31"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="32" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4655,257 +5295,257 @@
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="42" t="s">
+      <c r="A168" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
+      <c r="A170" s="31"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="43" t="s">
+      <c r="A171" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
+      <c r="A173" s="31"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="43" t="s">
+      <c r="A175" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
+      <c r="A179" s="31"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
+      <c r="A182" s="31"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="33" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
+      <c r="A184" s="31"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="43" t="s">
+      <c r="A185" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
+      <c r="A187" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="33" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
+      <c r="A191" s="31"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="33" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="43" t="s">
+      <c r="A194" s="33" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="43" t="s">
+      <c r="A195" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="43" t="s">
+      <c r="A196" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="43" t="s">
+      <c r="A197" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="43" t="s">
+      <c r="A200" s="33" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="41"/>
+      <c r="A201" s="31"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="43" t="s">
+      <c r="A203" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="43" t="s">
+      <c r="A204" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="43" t="s">
+      <c r="A205" s="33" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="43" t="s">
+      <c r="A206" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="41"/>
+      <c r="A207" s="31"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="43" t="s">
+      <c r="A208" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="43" t="s">
+      <c r="A212" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="43" t="s">
+      <c r="A213" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="43" t="s">
+      <c r="A214" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
+      <c r="A215" s="31"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="43" t="s">
+      <c r="A218" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="33" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="43" t="s">
+      <c r="A220" s="33" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
+      <c r="A221" s="31"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="42" t="s">
+      <c r="A222" s="32" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4925,257 +5565,257 @@
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="42" t="s">
+      <c r="A226" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="41"/>
+      <c r="A228" s="31"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="43" t="s">
+      <c r="A229" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="43" t="s">
+      <c r="A230" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="41"/>
+      <c r="A231" s="31"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="43" t="s">
+      <c r="A232" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="43" t="s">
+      <c r="A233" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="43" t="s">
+      <c r="A234" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="43" t="s">
+      <c r="A235" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="43" t="s">
+      <c r="A236" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
+      <c r="A237" s="31"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="43" t="s">
+      <c r="A238" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="43" t="s">
+      <c r="A239" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="41"/>
+      <c r="A240" s="31"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="43" t="s">
+      <c r="A241" s="33" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="41"/>
+      <c r="A242" s="31"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="43" t="s">
+      <c r="A243" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="43" t="s">
+      <c r="A244" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="43" t="s">
+      <c r="A245" s="33" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="43" t="s">
+      <c r="A246" s="33" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="43" t="s">
+      <c r="A247" s="33" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="33" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
+      <c r="A249" s="31"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="43" t="s">
+      <c r="A250" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="43" t="s">
+      <c r="A251" s="33" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="43" t="s">
+      <c r="A252" s="33" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="43" t="s">
+      <c r="A253" s="33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="43" t="s">
+      <c r="A254" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="43" t="s">
+      <c r="A255" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="43" t="s">
+      <c r="A256" s="33" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="43" t="s">
+      <c r="A257" s="33" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="43" t="s">
+      <c r="A258" s="33" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="41"/>
+      <c r="A259" s="31"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="43" t="s">
+      <c r="A260" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="43" t="s">
+      <c r="A261" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="43" t="s">
+      <c r="A262" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="43" t="s">
+      <c r="A263" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="43" t="s">
+      <c r="A264" s="33" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="41"/>
+      <c r="A265" s="31"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="43" t="s">
+      <c r="A266" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="43" t="s">
+      <c r="A267" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="43" t="s">
+      <c r="A268" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="43" t="s">
+      <c r="A269" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="43" t="s">
+      <c r="A271" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="43" t="s">
+      <c r="A272" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="41"/>
+      <c r="A273" s="31"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="43" t="s">
+      <c r="A274" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="43" t="s">
+      <c r="A275" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="43" t="s">
+      <c r="A276" s="33" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="43" t="s">
+      <c r="A277" s="33" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="43" t="s">
+      <c r="A278" s="33" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="41"/>
+      <c r="A279" s="31"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="42" t="s">
+      <c r="A280" s="32" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5195,267 +5835,267 @@
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="42" t="s">
+      <c r="A284" s="32" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="43" t="s">
+      <c r="A285" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="41"/>
+      <c r="A286" s="31"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="43" t="s">
+      <c r="A287" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="43" t="s">
+      <c r="A288" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="41"/>
+      <c r="A289" s="31"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="43" t="s">
+      <c r="A290" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="43" t="s">
+      <c r="A291" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="43" t="s">
+      <c r="A292" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="43" t="s">
+      <c r="A293" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="43" t="s">
+      <c r="A294" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="41"/>
+      <c r="A295" s="31"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="43" t="s">
+      <c r="A296" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="43" t="s">
+      <c r="A297" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="41"/>
+      <c r="A298" s="31"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="43" t="s">
+      <c r="A299" s="33" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="41"/>
+      <c r="A300" s="31"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="43" t="s">
+      <c r="A301" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="43" t="s">
+      <c r="A302" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="43" t="s">
+      <c r="A303" s="33" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="43" t="s">
+      <c r="A304" s="33" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="43" t="s">
+      <c r="A305" s="33" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="43" t="s">
+      <c r="A306" s="33" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="43" t="s">
+      <c r="A307" s="33" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="41"/>
+      <c r="A308" s="31"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="43" t="s">
+      <c r="A309" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="43" t="s">
+      <c r="A310" s="33" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="43" t="s">
+      <c r="A311" s="33" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="43" t="s">
+      <c r="A312" s="33" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="43" t="s">
+      <c r="A313" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="43" t="s">
+      <c r="A314" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="43" t="s">
+      <c r="A315" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="43" t="s">
+      <c r="A316" s="33" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="43" t="s">
+      <c r="A317" s="33" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="41"/>
+      <c r="A318" s="31"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="43" t="s">
+      <c r="A319" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="43" t="s">
+      <c r="A320" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="43" t="s">
+      <c r="A321" s="33" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="43" t="s">
+      <c r="A322" s="33" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="43" t="s">
+      <c r="A323" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="43" t="s">
+      <c r="A324" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="41"/>
+      <c r="A325" s="31"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="43" t="s">
+      <c r="A326" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="43" t="s">
+      <c r="A327" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="43" t="s">
+      <c r="A328" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="43" t="s">
+      <c r="A329" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="43" t="s">
+      <c r="A330" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="43" t="s">
+      <c r="A331" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="43" t="s">
+      <c r="A332" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="41"/>
+      <c r="A333" s="31"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="43" t="s">
+      <c r="A334" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="43" t="s">
+      <c r="A335" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="43" t="s">
+      <c r="A336" s="33" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="43" t="s">
+      <c r="A337" s="33" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="43" t="s">
+      <c r="A338" s="33" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="41"/>
+      <c r="A339" s="31"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="42" t="s">
+      <c r="A340" s="32" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5475,267 +6115,267 @@
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="42" t="s">
+      <c r="A344" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="43" t="s">
+      <c r="A345" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
+      <c r="A346" s="31"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="43" t="s">
+      <c r="A347" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="43" t="s">
+      <c r="A348" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="41"/>
+      <c r="A349" s="31"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="43" t="s">
+      <c r="A350" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="43" t="s">
+      <c r="A351" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="43" t="s">
+      <c r="A352" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="43" t="s">
+      <c r="A353" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="43" t="s">
+      <c r="A354" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="41"/>
+      <c r="A355" s="31"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="43" t="s">
+      <c r="A356" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="43" t="s">
+      <c r="A357" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="41"/>
+      <c r="A358" s="31"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="43" t="s">
+      <c r="A359" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="41"/>
+      <c r="A360" s="31"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="43" t="s">
+      <c r="A361" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="43" t="s">
+      <c r="A362" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="43" t="s">
+      <c r="A363" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="43" t="s">
+      <c r="A364" s="33" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="43" t="s">
+      <c r="A365" s="33" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="43" t="s">
+      <c r="A366" s="33" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="43" t="s">
+      <c r="A367" s="33" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="41"/>
+      <c r="A368" s="31"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="43" t="s">
+      <c r="A369" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="43" t="s">
+      <c r="A370" s="33" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="43" t="s">
+      <c r="A371" s="33" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="43" t="s">
+      <c r="A372" s="33" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="43" t="s">
+      <c r="A373" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="43" t="s">
+      <c r="A374" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="43" t="s">
+      <c r="A375" s="33" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="43" t="s">
+      <c r="A376" s="33" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="43" t="s">
+      <c r="A377" s="33" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="41"/>
+      <c r="A378" s="31"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="43" t="s">
+      <c r="A379" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="43" t="s">
+      <c r="A380" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="43" t="s">
+      <c r="A381" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="43" t="s">
+      <c r="A382" s="33" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="43" t="s">
+      <c r="A383" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="43" t="s">
+      <c r="A384" s="33" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="41"/>
+      <c r="A385" s="31"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="43" t="s">
+      <c r="A386" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="43" t="s">
+      <c r="A387" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="43" t="s">
+      <c r="A388" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="43" t="s">
+      <c r="A389" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="43" t="s">
+      <c r="A390" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="43" t="s">
+      <c r="A391" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="43" t="s">
+      <c r="A392" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="41"/>
+      <c r="A393" s="31"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="43" t="s">
+      <c r="A394" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="43" t="s">
+      <c r="A395" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="43" t="s">
+      <c r="A396" s="33" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="43" t="s">
+      <c r="A397" s="33" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="43" t="s">
+      <c r="A398" s="33" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="41"/>
+      <c r="A399" s="31"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="42" t="s">
+      <c r="A400" s="32" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5755,277 +6395,277 @@
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="42" t="s">
+      <c r="A404" s="32" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="43" t="s">
+      <c r="A405" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="41"/>
+      <c r="A406" s="31"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="43" t="s">
+      <c r="A407" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="43" t="s">
+      <c r="A408" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="41"/>
+      <c r="A409" s="31"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="43" t="s">
+      <c r="A410" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="43" t="s">
+      <c r="A411" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="43" t="s">
+      <c r="A412" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="43" t="s">
+      <c r="A413" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="43" t="s">
+      <c r="A414" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="41"/>
+      <c r="A415" s="31"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="43" t="s">
+      <c r="A416" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="43" t="s">
+      <c r="A417" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="41"/>
+      <c r="A418" s="31"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="43" t="s">
+      <c r="A419" s="33" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="41"/>
+      <c r="A420" s="31"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="43" t="s">
+      <c r="A421" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="43" t="s">
+      <c r="A422" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="43" t="s">
+      <c r="A423" s="33" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="43" t="s">
+      <c r="A424" s="33" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="43" t="s">
+      <c r="A425" s="33" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="43" t="s">
+      <c r="A426" s="33" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="43" t="s">
+      <c r="A427" s="33" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="43" t="s">
+      <c r="A428" s="33" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="41"/>
+      <c r="A429" s="31"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="43" t="s">
+      <c r="A430" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="43" t="s">
+      <c r="A431" s="33" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="43" t="s">
+      <c r="A432" s="33" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="43" t="s">
+      <c r="A433" s="33" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="43" t="s">
+      <c r="A434" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="43" t="s">
+      <c r="A435" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="43" t="s">
+      <c r="A436" s="33" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="43" t="s">
+      <c r="A437" s="33" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="43" t="s">
+      <c r="A438" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="41"/>
+      <c r="A439" s="31"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="43" t="s">
+      <c r="A440" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="43" t="s">
+      <c r="A441" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="43" t="s">
+      <c r="A442" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="43" t="s">
+      <c r="A443" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="43" t="s">
+      <c r="A444" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="43" t="s">
+      <c r="A445" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="43" t="s">
+      <c r="A446" s="33" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="41"/>
+      <c r="A447" s="31"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="43" t="s">
+      <c r="A448" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="43" t="s">
+      <c r="A449" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="43" t="s">
+      <c r="A450" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="43" t="s">
+      <c r="A451" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="43" t="s">
+      <c r="A452" s="33" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="43" t="s">
+      <c r="A453" s="33" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="43" t="s">
+      <c r="A454" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="41"/>
+      <c r="A455" s="31"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="43" t="s">
+      <c r="A456" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="43" t="s">
+      <c r="A457" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="43" t="s">
+      <c r="A458" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="43" t="s">
+      <c r="A459" s="33" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="43" t="s">
+      <c r="A460" s="33" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="41"/>
+      <c r="A461" s="31"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="42" t="s">
+      <c r="A462" s="32" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6045,155 +6685,155 @@
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="42" t="s">
+      <c r="A466" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="43" t="s">
+      <c r="A467" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="41"/>
+      <c r="A468" s="31"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="43" t="s">
+      <c r="A469" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="43" t="s">
+      <c r="A470" s="33" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="41"/>
+      <c r="A471" s="31"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="43" t="s">
+      <c r="A472" s="33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="43" t="s">
+      <c r="A473" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="43" t="s">
+      <c r="A474" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="43" t="s">
+      <c r="A475" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="43" t="s">
+      <c r="A476" s="33" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="41"/>
+      <c r="A477" s="31"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="43" t="s">
+      <c r="A478" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="43" t="s">
+      <c r="A479" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="41"/>
+      <c r="A480" s="31"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="43" t="s">
+      <c r="A481" s="33" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="41"/>
+      <c r="A482" s="31"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="43" t="s">
+      <c r="A483" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="43" t="s">
+      <c r="A484" s="33" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="43" t="s">
+      <c r="A485" s="33" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="43" t="s">
+      <c r="A486" s="33" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="43" t="s">
+      <c r="A487" s="33" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="43" t="s">
+      <c r="A488" s="33" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="43" t="s">
+      <c r="A489" s="33" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="43" t="s">
+      <c r="A490" s="33" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="43" t="s">
+      <c r="A491" s="33" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="41"/>
+      <c r="A492" s="31"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="43" t="s">
+      <c r="A493" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="43" t="s">
+      <c r="A494" s="33" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="43" t="s">
+      <c r="A495" s="33" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="43" t="s">
+      <c r="A496" s="33" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="43" t="s">
+      <c r="A497" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="44" t="s">
+      <c r="A498" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6298,115 +6938,173 @@
   <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H30"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -6415,1477 +7113,2289 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="13"/>
+      <c r="A525" s="16"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="15"/>
+      <c r="A526" s="16"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="16"/>
+      <c r="A527" s="17"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="17"/>
+      <c r="A528" s="12"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F25FF29-0DA4-4998-8DAA-562A3AD843FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8F17AB8-9048-4AAC-8675-97AA0C43046B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="608">
   <si>
     <t>Model #</t>
   </si>
@@ -1344,6 +1344,510 @@
   </si>
   <si>
     <t>Number of Uncensored Observations: 23; Period of record: 2016-01-24 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 34</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-20 to 2017-04-26</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.3936    0.07676 -109.34       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.8435    0.04615   18.28       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1962</t>
+  </si>
+  <si>
+    <t>R-squared: 91.26 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.86 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1792</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.085 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8745</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.25827    0.11815 -69.894  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.84351    0.04531  18.618  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.04891    0.03290  -1.487  0.1259</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1891</t>
+  </si>
+  <si>
+    <t>R-squared: 91.84 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 85.2 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.241</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2682</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.203 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8544</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.3867    0.07205 -116.409  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8897    0.04764   18.677  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.3885    0.16733   -2.322  0.0196</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1726</t>
+  </si>
+  <si>
+    <t>R-squared: 92.55 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.31 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6431</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3077</t>
+  </si>
+  <si>
+    <t>lnQ     1.211</t>
+  </si>
+  <si>
+    <t>DECTIME 1.211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.887 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.897</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.5038    0.44131 -19.2693  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8409    0.04729  17.7810  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.3852    0.38256   1.0069  0.2878</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.1542    0.37516  -0.4109  0.6622</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.169</t>
+  </si>
+  <si>
+    <t>R-squared: 92.94 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 90.13 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1562</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2881</t>
+  </si>
+  <si>
+    <t>lnQ         1.219</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.817</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.874</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.972 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9075</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.31198    0.11697 -71.0586  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.88385    0.04844  18.2472  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.02733    0.03359  -0.8138  0.3889</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.33920    0.17883  -1.8968  0.0497</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1745</t>
+  </si>
+  <si>
+    <t>R-squared: 92.71 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 89.05 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.764</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2662</t>
+  </si>
+  <si>
+    <t>lnQ     1.239</t>
+  </si>
+  <si>
+    <t>lnQ2    1.130</t>
+  </si>
+  <si>
+    <t>DECTIME 1.368</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.7123 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8787</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.45278    0.47523 -17.7869  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.84162    0.04807  17.5100  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01164    0.03613  -0.3221  0.7275</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.34997    0.40352   0.8673  0.3508</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.15354    0.38089  -0.4031  0.6629</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1742</t>
+  </si>
+  <si>
+    <t>R-squared: 92.97 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 90.25 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1819</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2748</t>
+  </si>
+  <si>
+    <t>lnQ         1.222</t>
+  </si>
+  <si>
+    <t>lnQ2        1.309</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.127 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8996</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.7987    0.54282 -14.3669  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9240    0.06058  15.2528  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.4349    0.21245  -2.0472  0.0322</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.2828    0.48862  -0.5788  0.5320</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.6681    0.43616  -1.5318  0.1039</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1527</t>
+  </si>
+  <si>
+    <t>R-squared: 93.83 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 94.72 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.12</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2622</t>
+  </si>
+  <si>
+    <t>lnQ         2.213</t>
+  </si>
+  <si>
+    <t>DECTIME     2.206</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.888</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 0.7638 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8979</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error   z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.805408    0.55803 -13.98741  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.924611    0.06201  14.91042  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.002986    0.03521   0.08481  0.9255</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.438862    0.22108  -1.98511  0.0344</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.279782    0.49847  -0.56128  0.5374</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.672891    0.44740  -1.50399  0.1041</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1582</t>
+  </si>
+  <si>
+    <t>G-squared: 94.73 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1099</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2644</t>
+  </si>
+  <si>
+    <t>lnQ         2.240</t>
+  </si>
+  <si>
+    <t>lnQ2        1.369</t>
+  </si>
+  <si>
+    <t>DECTIME     2.307</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.924</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.005 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8994</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.758351    0.55923 -13.8732  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.971725    0.07693  12.6308  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.005235    0.03606  -0.1452  0.8706</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.566703    0.25316  -2.2385  0.0161</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.211466    1.17336   1.0325  0.2512</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.622951    0.59864  -1.0406  0.2476</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.839570    0.47514  -1.7670  0.0537</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1578</t>
+  </si>
+  <si>
+    <t>R-squared: 94.07 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 96.05 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1214</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2344</t>
+  </si>
+  <si>
+    <t>lnQ          3.456</t>
+  </si>
+  <si>
+    <t>lnQ2         1.440</t>
+  </si>
+  <si>
+    <t>DECTIME      3.033</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.943</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 10.009</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  6.656</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.031 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8998</t>
+  </si>
+  <si>
+    <t>&gt; View(fMeHg_Combined)</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34; Period of record: 2016-01-20 to 2017-04-26</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1675,22 +2179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,7 +2194,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2241,8 +2748,8 @@
   <dimension ref="A1:AI68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2256,10 +2763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -2298,24 +2805,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -2330,21 +2837,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="36" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="48"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -2838,36 +3345,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="36" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -3021,7 +3528,7 @@
       <c r="C22" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="37">
         <v>4.07E-2</v>
       </c>
       <c r="E22" s="35" t="s">
@@ -3354,34 +3861,34 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="36" t="s">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -3746,34 +4253,36 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="36" t="s">
+      <c r="B44" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="36"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -3823,7 +4332,7 @@
       <c r="A46" s="27">
         <v>1</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="6">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -3841,13 +4350,21 @@
       <c r="G46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
+      <c r="I46" s="36">
+        <v>91.26</v>
+      </c>
+      <c r="J46" s="36">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="K46" s="36">
+        <v>6.085</v>
+      </c>
+      <c r="L46" s="36">
+        <v>0.87450000000000006</v>
+      </c>
       <c r="M46" s="27"/>
       <c r="N46" s="8" t="s">
         <v>16</v>
@@ -3863,10 +4380,12 @@
       <c r="A47" s="27">
         <v>2</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="6">
         <v>0</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="25">
+        <v>0.12590000000000001</v>
+      </c>
       <c r="D47" s="10" t="s">
         <v>15</v>
       </c>
@@ -3879,13 +4398,21 @@
       <c r="G47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="I47" s="36">
+        <v>91.84</v>
+      </c>
+      <c r="J47" s="36">
+        <v>0.26819999999999999</v>
+      </c>
+      <c r="K47" s="36">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="L47" s="36">
+        <v>0.85440000000000005</v>
+      </c>
       <c r="M47" s="27"/>
       <c r="N47" s="8" t="s">
         <v>16</v>
@@ -3898,33 +4425,45 @@
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A48" s="27">
+      <c r="A48" s="11">
         <v>3</v>
       </c>
       <c r="B48" s="11">
         <v>0</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="37">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
+      <c r="I48" s="11">
+        <v>92.55</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="K48" s="11">
+        <v>2.887</v>
+      </c>
+      <c r="L48" s="36">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="N48" s="8" t="s">
         <v>16</v>
       </c>
@@ -3939,7 +4478,7 @@
       <c r="A49" s="27">
         <v>4</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -3951,15 +4490,27 @@
       <c r="E49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="11" t="s">
+      <c r="F49" s="6">
+        <v>0.2878</v>
+      </c>
+      <c r="G49" s="36">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="I49" s="36">
+        <v>92.94</v>
+      </c>
+      <c r="J49" s="36">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="K49" s="36">
+        <v>1.972</v>
+      </c>
+      <c r="L49" s="36">
+        <v>0.90749999999999997</v>
+      </c>
       <c r="M49" s="27"/>
       <c r="N49" s="8" t="s">
         <v>16</v>
@@ -3975,11 +4526,15 @@
       <c r="A50" s="27">
         <v>5</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="6">
         <v>0</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="36">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="D50" s="36">
+        <v>4.9700000000000001E-2</v>
+      </c>
       <c r="E50" s="10" t="s">
         <v>15</v>
       </c>
@@ -3989,13 +4544,21 @@
       <c r="G50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="I50" s="36">
+        <v>92.71</v>
+      </c>
+      <c r="J50" s="36">
+        <v>0.26619999999999999</v>
+      </c>
+      <c r="K50" s="36">
+        <v>0.71230000000000004</v>
+      </c>
+      <c r="L50" s="36">
+        <v>0.87870000000000004</v>
+      </c>
       <c r="M50" s="27"/>
       <c r="N50" s="8" t="s">
         <v>16</v>
@@ -4011,25 +4574,39 @@
       <c r="A51" s="27">
         <v>6</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="6">
         <v>0</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="36">
+        <v>0.72750000000000004</v>
+      </c>
       <c r="D51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="11" t="s">
+      <c r="F51" s="6">
+        <v>0.3508</v>
+      </c>
+      <c r="G51" s="36">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="I51" s="36">
+        <v>92.97</v>
+      </c>
+      <c r="J51" s="36">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="K51" s="36">
+        <v>1.127</v>
+      </c>
+      <c r="L51" s="36">
+        <v>0.89959999999999996</v>
+      </c>
       <c r="M51" s="27"/>
       <c r="N51" s="8" t="s">
         <v>16</v>
@@ -4045,25 +4622,39 @@
       <c r="A52" s="27">
         <v>7</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="6">
         <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <v>3.2199999999999999E-2</v>
+      </c>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="11" t="s">
+      <c r="F52" s="6">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G52" s="36">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="I52" s="36">
+        <v>93.83</v>
+      </c>
+      <c r="J52" s="36">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="K52" s="36">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="L52" s="36">
+        <v>0.89790000000000003</v>
+      </c>
       <c r="M52" s="27"/>
       <c r="N52" s="8" t="s">
         <v>16</v>
@@ -4079,23 +4670,39 @@
       <c r="A53" s="27">
         <v>8</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="6">
         <v>0</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="36">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3.44E-2</v>
+      </c>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="11" t="s">
+      <c r="F53" s="6">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.1041</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="I53" s="36">
+        <v>93.83</v>
+      </c>
+      <c r="J53" s="36">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="K53" s="36">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="L53" s="36">
+        <v>0.89939999999999998</v>
+      </c>
       <c r="M53" s="27"/>
       <c r="N53" s="8" t="s">
         <v>16</v>
@@ -4111,21 +4718,39 @@
       <c r="A54" s="27">
         <v>9</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="6">
         <v>0</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="11" t="s">
+      <c r="C54" s="36">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="G54" s="6">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="I54" s="36">
+        <v>94.07</v>
+      </c>
+      <c r="J54" s="36">
+        <v>0.2344</v>
+      </c>
+      <c r="K54" s="36">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="L54" s="36">
+        <v>0.89980000000000004</v>
+      </c>
       <c r="M54" s="27"/>
       <c r="N54" s="8" t="s">
         <v>16</v>
@@ -4143,34 +4768,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="36" t="s">
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="48"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -4410,12 +5035,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B18:J18"/>
@@ -4428,6 +5047,12 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="L60:L68 L57 L93:L1048576">
     <cfRule type="cellIs" dxfId="17" priority="42" operator="between">
@@ -11008,118 +11633,176 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBE2AD-EC1E-4563-8289-C8C08DD23DD5}">
-  <dimension ref="A1:A528"/>
+  <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -11128,1477 +11811,2294 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="16"/>
+      <c r="A525" s="13"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="16"/>
+      <c r="A526" s="15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="17"/>
+      <c r="A527" s="16"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="12"/>
+      <c r="A528" s="17"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A8F17AB8-9048-4AAC-8675-97AA0C43046B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E34EB94F-BAE5-4C90-954F-CF4867E6F4A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="777">
   <si>
     <t>Model #</t>
   </si>
@@ -338,33 +338,6 @@
     <t>Outlet fMeHg (Using Combined Outlet Inst.Flow for models only)</t>
   </si>
   <si>
-    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
     <t>Combined Outflow fMeHg</t>
   </si>
   <si>
@@ -1848,6 +1821,540 @@
   </si>
   <si>
     <t>Number of Uncensored Observations: 34; Period of record: 2016-01-20 to 2017-04-26</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outlet&lt;-importRDB("fMeHg_Comb_OutletR.txt")</t>
+  </si>
+  <si>
+    <t>&gt; View(fMeHg_Outlet)</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm1 &lt;- loadReg(fMeHg ~model(1), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(1), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 29</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 5.4949</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.8702    0.12055  -81.88       0</t>
+  </si>
+  <si>
+    <t>lnQ           0.8585    0.04879   17.60       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3055</t>
+  </si>
+  <si>
+    <t>R-squared: 91.98 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 73.17 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1842</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 23.27 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7064</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm2 &lt;- loadReg(fMeHg ~model(2), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(2), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm2</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.6889    0.13228 -73.244  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8585    0.04468  19.214  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         -0.0297    0.01194  -2.488  0.0128</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2562</t>
+  </si>
+  <si>
+    <t>R-squared: 93.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 79.37 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3797</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 3.585 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8873</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm3 &lt;- loadReg(fMeHg ~model(3), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(3), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.9260    0.11197 -88.648  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8778    0.04509  19.471  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.5118    0.20022  -2.556  0.0108</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2536</t>
+  </si>
+  <si>
+    <t>R-squared: 93.59 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 79.67 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1519</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.186</t>
+  </si>
+  <si>
+    <t>lnQ     1.029</t>
+  </si>
+  <si>
+    <t>DECTIME 1.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 10.74 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9191</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm4 &lt;- loadReg(fMeHg ~model(4), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(4), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -9.9002    0.54184 -18.2715  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.8325    0.05693  14.6228  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   0.3098    0.50321   0.6157  0.5089</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.2062    0.49344  -0.4178  0.6533</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.291</t>
+  </si>
+  <si>
+    <t>R-squared: 92.93 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.82 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1689</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2266</t>
+  </si>
+  <si>
+    <t>lnQ         1.430</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.004</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 14.68 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7794</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm5 &lt;- loadReg(fMeHg ~model(5), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(5), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.78644    0.14114 -69.338  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.87207    0.04405  19.795  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.02014    0.01293  -1.557  0.1013</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.35945    0.21811  -1.648  0.0837</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2404</t>
+  </si>
+  <si>
+    <t>R-squared: 94.16 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.36 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8108</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0968</t>
+  </si>
+  <si>
+    <t>lnQ     1.036</t>
+  </si>
+  <si>
+    <t>lnQ2    1.252</t>
+  </si>
+  <si>
+    <t>DECTIME 1.288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.08 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9174</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm6 &lt;- loadReg(fMeHg ~model(6), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(6), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -9.67143    0.52940 -18.2688  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.84576    0.05462  15.4855  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.02466    0.01297  -1.9013  0.0437</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  0.13369    0.48767   0.2741  0.7633</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.18973    0.46958  -0.4040  0.6575</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2635</t>
+  </si>
+  <si>
+    <t>R-squared: 93.85 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.88 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1926</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1242</t>
+  </si>
+  <si>
+    <t>lnQ         1.453</t>
+  </si>
+  <si>
+    <t>lnQ2        1.149</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.153</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.420</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.631 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8596</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm7 &lt;- loadReg(fMeHg ~model(7), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(7), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.8657    0.59435 -14.917  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           0.9307    0.06035  15.422  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.7313    0.25188  -2.904  0.0031</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.8272    0.59038  -1.401  0.1310</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -1.1046    0.53240  -2.075  0.0287</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2243</t>
+  </si>
+  <si>
+    <t>R-squared: 94.77 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 85.55 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.1525</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2228</t>
+  </si>
+  <si>
+    <t>lnQ         2.084</t>
+  </si>
+  <si>
+    <t>DECTIME     1.841</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.149</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.026 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9177</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm8 &lt;- loadReg(fMeHg ~model(8), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(8), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.91291    0.60090 -14.8327  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.92236    0.06156  14.9822  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01123    0.01351  -0.8311  0.3543</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.62434    0.28432  -2.1959  0.0188</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.74106    0.60319  -1.2286  0.1746</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.96568    0.56132  -1.7204  0.0610</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2273</t>
+  </si>
+  <si>
+    <t>R-squared: 94.92 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.4 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.3148</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1652</t>
+  </si>
+  <si>
+    <t>lnQ         2.141</t>
+  </si>
+  <si>
+    <t>lnQ2        1.445</t>
+  </si>
+  <si>
+    <t>DECTIME     2.315</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.366</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 1.938 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9168</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm9 &lt;- loadReg(fMeHg ~model(9), data = fMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(fMeHg ~ model(9), data = fMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; fMeHg_Outletm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.957139    0.59404 -15.0784  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          0.968172    0.07064  13.7051  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.001122    0.01552  -0.0723  0.9338</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.848255    0.33132  -2.5603  0.0060</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.756720    1.38220   1.2710  0.1517</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.238751    0.71253  -1.7385  0.0533</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -1.296263    0.61198  -2.1181  0.0203</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2213</t>
+  </si>
+  <si>
+    <t>R-squared: 95.27 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.46 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4813</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1743</t>
+  </si>
+  <si>
+    <t>lnQ          2.894</t>
+  </si>
+  <si>
+    <t>lnQ2         1.958</t>
+  </si>
+  <si>
+    <t>DECTIME      3.228</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.889</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 10.554</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  6.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 2.796 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9324</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 29; Period of record: 2016-01-20 to 2017-04-26</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2182,16 +2689,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,16 +2713,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2749,7 +3259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2763,10 +3273,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -2805,24 +3315,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="39"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -2837,21 +3347,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48" t="s">
+      <c r="B5" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="39"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -3236,7 +3746,7 @@
         <v>0.78220000000000001</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>16</v>
@@ -3345,36 +3855,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48" t="s">
+      <c r="B18" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="48"/>
+      <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -3458,7 +3968,7 @@
         <v>0.85509999999999997</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>16</v>
@@ -3556,7 +4066,7 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>16</v>
@@ -3654,7 +4164,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>16</v>
@@ -3800,7 +4310,7 @@
         <v>0.88029999999999997</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>16</v>
@@ -3861,34 +4371,36 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48" t="s">
+      <c r="B31" s="40" t="s">
+        <v>776</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="48"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -3934,11 +4446,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>1</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="6">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -3956,105 +4468,137 @@
       <c r="G33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="38">
+        <v>91.98</v>
+      </c>
+      <c r="J33" s="38">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="K33" s="38">
+        <v>23.27</v>
+      </c>
+      <c r="L33" s="38">
+        <v>0.70640000000000003</v>
+      </c>
       <c r="M33" s="27"/>
       <c r="N33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA33" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y33" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>2</v>
       </c>
       <c r="B34" s="11">
         <v>0</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="37">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
+      <c r="I34" s="11">
+        <v>93.52</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.1129</v>
+      </c>
+      <c r="K34" s="11">
+        <v>3.585</v>
+      </c>
+      <c r="L34" s="38">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="N34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA34" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y34" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>3</v>
       </c>
       <c r="B35" s="11">
         <v>0</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="37">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="35" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
+      <c r="I35" s="11">
+        <v>93.59</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.186</v>
+      </c>
+      <c r="K35" s="11">
+        <v>10.74</v>
+      </c>
+      <c r="L35" s="38">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="N35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA35" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y35" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>4</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="6">
         <v>0</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -4066,35 +4610,51 @@
       <c r="E36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="11" t="s">
+      <c r="F36" s="6">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="G36" s="38">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="I36" s="38">
+        <v>92.93</v>
+      </c>
+      <c r="J36" s="38">
+        <v>0.2266</v>
+      </c>
+      <c r="K36" s="38">
+        <v>14.68</v>
+      </c>
+      <c r="L36" s="38">
+        <v>0.77939999999999998</v>
+      </c>
       <c r="M36" s="27"/>
       <c r="N36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA36" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="27">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <v>5</v>
       </c>
       <c r="B37" s="11">
         <v>0</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="38">
+        <v>0.1013</v>
+      </c>
+      <c r="D37" s="11">
+        <v>8.3699999999999997E-2</v>
+      </c>
       <c r="E37" s="10" t="s">
         <v>15</v>
       </c>
@@ -4107,184 +4667,256 @@
       <c r="H37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
+      <c r="I37" s="11">
+        <v>94.16</v>
+      </c>
+      <c r="J37" s="11">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="L37" s="38">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="N37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA37" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>6</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="6">
         <v>0</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="38">
+        <v>4.3700000000000003E-2</v>
+      </c>
       <c r="D38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="11" t="s">
+      <c r="F38" s="6">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="G38" s="38">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="I38" s="38">
+        <v>93.85</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0.1242</v>
+      </c>
+      <c r="K38" s="38">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="L38" s="38">
+        <v>0.85960000000000003</v>
+      </c>
       <c r="M38" s="27"/>
       <c r="N38" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA38" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>7</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="6">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <v>3.0999999999999999E-3</v>
+      </c>
       <c r="E39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="11" t="s">
+      <c r="F39" s="6">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G39" s="38">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="I39" s="38">
+        <v>94.77</v>
+      </c>
+      <c r="J39" s="38">
+        <v>0.2228</v>
+      </c>
+      <c r="K39" s="38">
+        <v>6.0259999999999998</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0.91769999999999996</v>
+      </c>
       <c r="M39" s="27"/>
       <c r="N39" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA39" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y39" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>8</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="6">
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="38">
+        <v>0.3543</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1.8800000000000001E-2</v>
+      </c>
       <c r="E40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="11" t="s">
+      <c r="F40" s="6">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="G40" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="I40" s="38">
+        <v>94.92</v>
+      </c>
+      <c r="J40" s="38">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="K40" s="38">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="L40" s="38">
+        <v>0.91679999999999995</v>
+      </c>
       <c r="M40" s="27"/>
       <c r="N40" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA40" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y40" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>9</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="6">
         <v>0</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="11" t="s">
+      <c r="C41" s="38">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="D41" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.1517</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5.33E-2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
+      <c r="I41" s="38">
+        <v>95.27</v>
+      </c>
+      <c r="J41" s="38">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="K41" s="38">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="L41" s="38">
+        <v>0.93240000000000001</v>
+      </c>
       <c r="M41" s="27"/>
       <c r="N41" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA41" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y41" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B43" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="45" t="s">
-        <v>607</v>
-      </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="48" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B44" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="48"/>
-    </row>
-    <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L44" s="39"/>
+    </row>
+    <row r="45" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -4328,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -4370,13 +5002,13 @@
         <v>16</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>2</v>
       </c>
@@ -4418,13 +5050,13 @@
         <v>16</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>3</v>
       </c>
@@ -4462,13 +5094,13 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>17</v>
@@ -4516,7 +5148,7 @@
         <v>16</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>17</v>
@@ -4564,7 +5196,7 @@
         <v>16</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>17</v>
@@ -4612,7 +5244,7 @@
         <v>16</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>17</v>
@@ -4660,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>17</v>
@@ -4708,7 +5340,7 @@
         <v>16</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>17</v>
@@ -4756,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>17</v>
@@ -4768,34 +5400,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
+      <c r="B57" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="48" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="48"/>
+      <c r="L58" s="39"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -5035,6 +5667,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B18:J18"/>
@@ -5047,12 +5685,6 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="L60:L68 L57 L93:L1048576">
     <cfRule type="cellIs" dxfId="17" priority="42" operator="between">
@@ -5146,7 +5778,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5166,7 +5798,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -5184,7 +5816,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -5233,7 +5865,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -5251,12 +5883,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -5269,17 +5901,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -5294,17 +5926,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -5335,17 +5967,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -5363,17 +5995,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -5381,7 +6013,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -5401,7 +6033,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -5419,7 +6051,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -5468,7 +6100,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -5486,17 +6118,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -5509,17 +6141,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -5534,17 +6166,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -5595,17 +6227,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -5623,17 +6255,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -5641,7 +6273,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -5661,7 +6293,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5679,7 +6311,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5728,7 +6360,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -5746,17 +6378,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -5769,17 +6401,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -5794,17 +6426,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -5855,17 +6487,17 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -5883,17 +6515,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="33" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="33" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -5901,7 +6533,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -5921,7 +6553,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -5939,7 +6571,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -5988,7 +6620,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="33" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -6006,22 +6638,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="33" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -6034,17 +6666,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -6059,17 +6691,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -6125,17 +6757,17 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -6153,17 +6785,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="33" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -6171,7 +6803,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -6191,7 +6823,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -6209,7 +6841,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -6258,7 +6890,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="33" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -6276,22 +6908,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="33" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="33" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -6304,17 +6936,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="33" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -6329,17 +6961,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="33" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="33" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -6395,17 +7027,17 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -6423,17 +7055,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="33" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="33" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -6441,7 +7073,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="32" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -6461,7 +7093,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -6479,7 +7111,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -6528,7 +7160,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6546,27 +7178,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="33" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="33" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="33" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="33" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="33" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -6579,17 +7211,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="33" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="33" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="33" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -6604,17 +7236,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="33" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="33" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -6675,17 +7307,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -6703,17 +7335,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="33" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="33" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="33" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -6721,7 +7353,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -6741,7 +7373,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="32" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -6759,7 +7391,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -6808,7 +7440,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="33" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -6826,27 +7458,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="33" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="33" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="33" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="33" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="33" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -6859,17 +7491,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="33" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="33" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="33" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -6884,17 +7516,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="33" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="33" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="33" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -6955,17 +7587,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -6983,17 +7615,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="33" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="33" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -7001,7 +7633,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="32" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -7021,7 +7653,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="32" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -7039,7 +7671,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -7088,7 +7720,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="33" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -7106,32 +7738,32 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="33" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="33" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="33" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="33" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="33" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="33" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -7144,17 +7776,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="33" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="33" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="33" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -7169,17 +7801,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="33" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="33" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="33" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -7245,17 +7877,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="33" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -7273,17 +7905,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="33" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="33" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -7291,7 +7923,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="32" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -7311,7 +7943,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="32" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -7329,7 +7961,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -7378,7 +8010,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -7391,42 +8023,42 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="33" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="33" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="33" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="33" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="33" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -7439,17 +8071,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="33" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="33" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="33" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -7570,7 +8202,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7590,7 +8222,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -7608,7 +8240,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -7616,27 +8248,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -7657,7 +8289,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -7675,12 +8307,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -7693,17 +8325,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -7718,17 +8350,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -7759,17 +8391,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -7787,17 +8419,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -7805,7 +8437,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -7825,7 +8457,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -7843,7 +8475,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -7851,27 +8483,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -7892,7 +8524,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -7910,17 +8542,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -7933,17 +8565,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -7958,17 +8590,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -8019,17 +8651,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -8047,17 +8679,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -8065,7 +8697,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -8085,7 +8717,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -8103,7 +8735,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -8111,27 +8743,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -8152,7 +8784,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -8170,17 +8802,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -8193,17 +8825,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -8218,17 +8850,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -8246,12 +8878,12 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -8279,17 +8911,17 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -8307,17 +8939,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -8325,7 +8957,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -8345,7 +8977,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -8363,7 +8995,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -8371,27 +9003,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -8412,7 +9044,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -8430,22 +9062,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -8458,17 +9090,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -8483,17 +9115,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -8506,22 +9138,22 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -8549,17 +9181,17 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -8577,17 +9209,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -8595,7 +9227,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -8615,7 +9247,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -8633,7 +9265,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -8641,27 +9273,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -8682,7 +9314,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -8700,22 +9332,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -8728,17 +9360,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -8753,17 +9385,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -8781,17 +9413,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -8819,17 +9451,17 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -8847,17 +9479,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -8865,7 +9497,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -8885,7 +9517,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -8903,7 +9535,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -8911,27 +9543,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -8952,7 +9584,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -8970,27 +9602,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -9003,17 +9635,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -9028,17 +9660,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -9051,27 +9683,27 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -9099,17 +9731,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -9127,17 +9759,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -9145,7 +9777,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -9165,7 +9797,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -9183,7 +9815,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -9191,27 +9823,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -9232,7 +9864,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -9250,27 +9882,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -9283,17 +9915,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -9308,17 +9940,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -9331,27 +9963,27 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -9379,17 +10011,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -9407,17 +10039,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -9425,7 +10057,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -9445,7 +10077,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -9463,7 +10095,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -9471,27 +10103,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -9512,7 +10144,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -9530,32 +10162,32 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -9568,17 +10200,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -9593,17 +10225,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -9616,32 +10248,32 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -9669,17 +10301,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -9697,17 +10329,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -9715,7 +10347,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -9735,7 +10367,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -9753,7 +10385,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -9761,27 +10393,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -9802,7 +10434,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -9820,37 +10452,37 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -9863,17 +10495,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -9888,17 +10520,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -9911,37 +10543,37 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -9969,17 +10601,17 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -9997,17 +10629,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -10033,1597 +10665,2477 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
-  <dimension ref="A1:A528"/>
+  <dimension ref="A1:A530"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="15" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="15" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="7" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="14" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="15" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="7" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="15" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="14" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="13"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="13"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
+      <c r="A101" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="14" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="14" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="13"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="15" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="7" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
+      <c r="A114" s="15" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="13"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+      <c r="A117" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="13"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="A123" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="13"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="13"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
+      <c r="A134" s="14" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="13"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
+      <c r="A144" s="14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="13"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
+      <c r="A149" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="13"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
+      <c r="A157" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="13"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
+      <c r="A163" s="14" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="13"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="15" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="7" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="13"/>
+      <c r="A170" s="15" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="13"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
+      <c r="A173" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="13"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
+      <c r="A179" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="13"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
+      <c r="A182" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="13"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
+      <c r="A191" s="14" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="13"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
+      <c r="A201" s="14" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="13"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
+      <c r="A207" s="14" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="13"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
+      <c r="A215" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="13"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="13"/>
+      <c r="A221" s="14" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="14" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="13"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="15" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="7" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
+      <c r="A228" s="15" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="13"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
+      <c r="A231" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="13"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="13"/>
+      <c r="A237" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
+      <c r="A240" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
+      <c r="A249" s="14" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
+      <c r="A259" s="14" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
+      <c r="A265" s="14" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
+      <c r="A273" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
+      <c r="A279" s="14" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="14" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="15" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="7" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="13"/>
+      <c r="A286" s="15" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="13"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="13"/>
+      <c r="A289" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="13"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
+      <c r="A295" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="13"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
+      <c r="A298" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
+      <c r="A308" s="14" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="13"/>
+      <c r="A318" s="14" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="13"/>
+      <c r="A325" s="14" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="13"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
+      <c r="A333" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="13"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="13"/>
+      <c r="A339" s="14" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="14" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="13"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="15" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="7" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="13"/>
+      <c r="A346" s="15" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="13"/>
+      <c r="A349" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="13"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="13"/>
+      <c r="A355" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="13"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="13"/>
+      <c r="A358" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="13"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="13"/>
+      <c r="A368" s="14" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="13"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="13"/>
+      <c r="A378" s="14" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="13"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="13"/>
+      <c r="A385" s="14" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="13"/>
+      <c r="A393" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="13"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="13"/>
+      <c r="A399" s="14" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="14" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="13"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="15" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="7" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="13"/>
+      <c r="A406" s="15" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="13"/>
+      <c r="A409" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="13"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="13"/>
+      <c r="A415" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="13"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="13"/>
+      <c r="A418" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="13"/>
+      <c r="A429" s="14" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="13"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="13"/>
+      <c r="A439" s="14" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="13"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="13"/>
+      <c r="A447" s="14" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="13"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="13"/>
+      <c r="A455" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="13"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="13"/>
+      <c r="A461" s="14" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="14" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="13"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="15" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="7" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="13"/>
+      <c r="A468" s="15" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="13"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="13"/>
+      <c r="A471" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="13"/>
+      <c r="A477" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="13"/>
+      <c r="A480" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="13"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="13"/>
+      <c r="A492" s="14" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="13"/>
+      <c r="A502" s="14" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="13"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="13"/>
+      <c r="A511" s="14" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="13"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="13"/>
+      <c r="A519" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="13"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="16"/>
+      <c r="A525" s="14" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="16"/>
+      <c r="A526" s="14" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="17"/>
+      <c r="A527" s="16"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="12"/>
+      <c r="A528" s="16"/>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="17"/>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11643,7 +13155,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -11653,7 +13165,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -11663,7 +13175,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -11681,7 +13193,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -11689,27 +13201,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -11730,7 +13242,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -11748,12 +13260,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -11766,17 +13278,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -11791,17 +13303,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -11832,17 +13344,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -11860,17 +13372,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -11878,7 +13390,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -11888,7 +13400,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
@@ -11898,7 +13410,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -11916,7 +13428,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -11924,27 +13436,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -11965,7 +13477,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -11983,17 +13495,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -12006,17 +13518,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -12031,17 +13543,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -12092,17 +13604,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -12120,17 +13632,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -12138,7 +13650,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -12148,7 +13660,7 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -12158,7 +13670,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -12176,7 +13688,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -12184,27 +13696,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -12225,7 +13737,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -12243,17 +13755,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -12266,17 +13778,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -12291,17 +13803,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -12319,12 +13831,12 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -12352,17 +13864,17 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -12380,17 +13892,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -12398,7 +13910,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -12408,7 +13920,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -12418,7 +13930,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -12436,7 +13948,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -12444,27 +13956,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -12485,7 +13997,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -12503,22 +14015,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -12531,17 +14043,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -12556,17 +14068,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -12584,17 +14096,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -12622,17 +14134,17 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -12650,17 +14162,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -12668,7 +14180,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -12678,7 +14190,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -12688,7 +14200,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -12706,7 +14218,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -12714,27 +14226,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -12755,7 +14267,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -12773,22 +14285,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -12801,17 +14313,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -12826,17 +14338,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -12854,17 +14366,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -12892,17 +14404,17 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -12920,17 +14432,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -12938,7 +14450,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -12948,7 +14460,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -12958,7 +14470,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -12976,7 +14488,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -12984,27 +14496,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -13025,7 +14537,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -13043,27 +14555,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -13076,17 +14588,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -13101,17 +14613,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -13129,22 +14641,22 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -13172,17 +14684,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -13200,17 +14712,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -13218,7 +14730,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -13228,7 +14740,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -13238,7 +14750,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -13256,7 +14768,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -13264,27 +14776,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -13305,7 +14817,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -13323,27 +14835,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -13356,17 +14868,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -13381,17 +14893,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -13409,22 +14921,22 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -13452,17 +14964,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -13480,17 +14992,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -13498,7 +15010,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -13508,7 +15020,7 @@
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -13518,7 +15030,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -13536,7 +15048,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -13544,27 +15056,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -13585,7 +15097,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -13598,37 +15110,37 @@
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="14" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -13641,17 +15153,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -13666,17 +15178,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -13694,27 +15206,27 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -13742,17 +15254,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -13770,17 +15282,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -13788,7 +15300,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -13798,7 +15310,7 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -13808,7 +15320,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -13826,7 +15338,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -13834,27 +15346,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -13875,7 +15387,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -13888,42 +15400,42 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -13936,17 +15448,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -13961,17 +15473,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -13984,37 +15496,37 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -14042,17 +15554,17 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -14070,17 +15582,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -14088,7 +15600,7 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="15" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_fMeHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571E3462-66AD-41DE-8023-5DE1FCBA4AD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B035BC6-B7FD-4828-988B-E94D58D9C585}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fMeHg wy2016-17 Model Results" sheetId="2" r:id="rId1"/>
@@ -3015,19 +3015,19 @@
     <t>Number of Uncensored Observations: 40; Period of record: 2015-12-19 to 2017-05-15</t>
   </si>
   <si>
-    <t>1,228; 1,249</t>
-  </si>
-  <si>
-    <t>1092; 1285</t>
-  </si>
-  <si>
-    <t>215, 388</t>
-  </si>
-  <si>
-    <t>227, 414</t>
-  </si>
-  <si>
-    <t>145, 300</t>
+    <t>8.14, 8.01</t>
+  </si>
+  <si>
+    <t>9.16, 7.78</t>
+  </si>
+  <si>
+    <t>46.47, 25.78</t>
+  </si>
+  <si>
+    <t>44.02, 24.16</t>
+  </si>
+  <si>
+    <t>69.08, 33.29</t>
   </si>
 </sst>
 </file>
@@ -3297,7 +3297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3442,19 +3442,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3475,7 +3463,22 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4031,8 +4034,8 @@
   <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P79" sqref="P79:P80"/>
+      <pane ySplit="4" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4060,17 +4063,17 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="64"/>
       <c r="L1" s="42"/>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="58"/>
+      <c r="N1" s="65"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="2"/>
     </row>
@@ -4199,18 +4202,18 @@
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
       <c r="AC6" s="18" t="s">
         <v>48</v>
       </c>
@@ -4225,22 +4228,22 @@
       <c r="AL6" s="18"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="54" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="54"/>
+      <c r="M7" s="61"/>
       <c r="AC7" s="18" t="s">
         <v>49</v>
       </c>
@@ -4766,38 +4769,38 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="54" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="54"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:28" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -5321,38 +5324,38 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="58" t="s">
         <v>771</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="54" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="54"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:28" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -5860,38 +5863,38 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="61"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="57"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="54" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="54"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="1:28" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -6401,38 +6404,38 @@
       <c r="AB57" s="9"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="58" t="s">
         <v>979</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="54" t="s">
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M60" s="54"/>
+      <c r="M60" s="61"/>
     </row>
     <row r="61" spans="1:28" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
@@ -6488,7 +6491,7 @@
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="6">
         <v>1</v>
       </c>
       <c r="B62" s="6">
@@ -6512,27 +6515,28 @@
       <c r="H62" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="6">
         <v>92.73</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="6">
         <v>0.75970000000000004</v>
       </c>
-      <c r="K62" s="53">
+      <c r="K62" s="6">
         <v>0.42759999999999998</v>
       </c>
-      <c r="L62" s="53">
+      <c r="L62" s="6">
         <v>7.7069999999999999</v>
       </c>
       <c r="M62" s="53">
         <v>0.80400000000000005</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="O62" s="65" t="s">
+      <c r="O62" s="66" t="s">
         <v>980</v>
       </c>
+      <c r="P62" s="54"/>
       <c r="Q62" s="8" t="s">
         <v>16</v>
       </c>
@@ -6544,50 +6548,53 @@
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="11">
         <v>2</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="11">
         <v>0</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="34">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="H63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I63" s="53">
+      <c r="I63" s="11">
         <v>93.55</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="11">
         <v>0.56069999999999998</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="11">
         <v>0.37</v>
       </c>
-      <c r="L63" s="53">
+      <c r="L63" s="11">
         <v>-0.76529999999999998</v>
       </c>
       <c r="M63" s="53">
         <v>0.81540000000000001</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="O63" s="36" t="s">
+      <c r="O63" s="39" t="s">
         <v>981</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>776</v>
       </c>
       <c r="Q63" s="8" t="s">
         <v>16</v>
@@ -6812,54 +6819,52 @@
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
+      <c r="A68" s="6">
         <v>7</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="6">
         <v>0</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="6">
         <v>94.91</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="6">
         <v>0.80840000000000001</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="6">
         <v>0.24129999999999999</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="6">
         <v>3.3050000000000002</v>
       </c>
       <c r="M68" s="53">
         <v>0.90290000000000004</v>
       </c>
-      <c r="N68" s="39" t="s">
+      <c r="N68" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="54" t="s">
         <v>984</v>
       </c>
-      <c r="P68" s="39" t="s">
-        <v>255</v>
-      </c>
+      <c r="P68" s="54"/>
       <c r="Q68" s="8" t="s">
         <v>16</v>
       </c>
@@ -6972,12 +6977,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="B60:K60"/>
     <mergeCell ref="B20:K20"/>
@@ -6990,6 +6989,12 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="B45:K45"/>
     <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="M62:M70 M59 M95:M1048576">
     <cfRule type="cellIs" dxfId="19" priority="44" operator="between">
